--- a/biology/Botanique/Parc_Heping/Parc_Heping.xlsx
+++ b/biology/Botanique/Parc_Heping/Parc_Heping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Heping  (chinois simplifié : 和平公园 ; chinois traditionnel : 和平公園 ; pinyin : Hépíng gōngyuán) est situé à la jonction du district de Yangpu et du district de Hongkou de Shanghai en Chine. Il a été achevé en 1958. C'est un parc dans le style des jardins chinois. Il couvre une superficie de 1 km2 (264 acres), dont 0,2 km2 (50 acres) de surface d'eau. L'entrée est actuellement gratuite pour les visiteurs. 
@@ -512,13 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de l'incident du 13 août, qui a éclaté en 1937, l'emplacement du parc a été attaqué par les troupes japonaises.  
 En 1938, cette zone a été utilisée comme terrain militaire par l'armée japonaise. Ce lieu abritait six abris anti-aériens en béton armé qui servaient de dépôts de munitions, avec autour des fortifications.  
 En 1957, une partie du terrain a été utilisée comme décharge.  
 En 1958, le parc Tilan (提篮公园) a été construit ici, et le terrain a été acquis par le gouvernement.  
-Le parc a été ouvert au public le 22 avril 1959. Il a été rebaptisé Heping Park le 1er octobre 1959[1].
+Le parc a été ouvert au public le 22 avril 1959. Il a été rebaptisé Heping Park le 1er octobre 1959.
 </t>
         </is>
       </c>
@@ -549,13 +563,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delphinarium
-Le Delphinarium du parc Heping a ouvert en 1996. C'était le premier lieu alliant des spectacles de dauphins à Shanghai. Il a été construit et exploité par une société taïwanaise. Après avoir contracté d'énormes dettes, l'entreprise a fait faillite. Après négociations, le parc Heping  a obtenu les droits de propriété des immeubles du delphinarium pour 2 millions de yuans. Le nouveau delphinarium du parc Heping a été nommé Blue Ocean Broadway (蓝海百老汇). Il avait une superficie totale de 8 500 m2 [2].  
-Finalement, il a été démoli lors de la rénovation en 2007[3]. 
-Île aux animaux
-L'île aux animaux a été conservée lors de la rénovation en septembre 2007. Les animaux qui étaient à l'origine en captivité sont maintenant en liberté sur l'île. Celle-ci est ouverte a la visite depuis la fête du Printemps de 2008. L'ensemble de l'île aux animaux couvre une superficie d'environ 10 acres.Des ponts à l'est et à l'ouest permettent aux visiteurs d'accéder à l'île aux animaux. La zone d'exposition des animaux compte plus de 60 espèces d'animaux tels que des lions, des tigres, des ours et des léopards, ainsi que « Niaoyu Lin » (« 鸟语林 »).
-Groupe de sculpture
-Dans le parc, il y a plus d'une dizaine de sculptures sur les thèmes de « l'éloge de la vie » (生命礼赞) et de « la société harmonieuse » (和谐社会), et des sculptures du « jardin thématique de la culture harmonieuse de la population » (和谐人口文化主题园). 
+          <t>Delphinarium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Delphinarium du parc Heping a ouvert en 1996. C'était le premier lieu alliant des spectacles de dauphins à Shanghai. Il a été construit et exploité par une société taïwanaise. Après avoir contracté d'énormes dettes, l'entreprise a fait faillite. Après négociations, le parc Heping  a obtenu les droits de propriété des immeubles du delphinarium pour 2 millions de yuans. Le nouveau delphinarium du parc Heping a été nommé Blue Ocean Broadway (蓝海百老汇). Il avait une superficie totale de 8 500 m2 .  
+Finalement, il a été démoli lors de la rénovation en 2007. 
 </t>
         </is>
       </c>
@@ -581,10 +596,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Points d'intérêt du parc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Île aux animaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'île aux animaux a été conservée lors de la rénovation en septembre 2007. Les animaux qui étaient à l'origine en captivité sont maintenant en liberté sur l'île. Celle-ci est ouverte a la visite depuis la fête du Printemps de 2008. L'ensemble de l'île aux animaux couvre une superficie d'environ 10 acres.Des ponts à l'est et à l'ouest permettent aux visiteurs d'accéder à l'île aux animaux. La zone d'exposition des animaux compte plus de 60 espèces d'animaux tels que des lions, des tigres, des ours et des léopards, ainsi que « Niaoyu Lin » (« 鸟语林 »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_Heping</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Heping</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Points d'intérêt du parc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Groupe de sculpture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le parc, il y a plus d'une dizaine de sculptures sur les thèmes de « l'éloge de la vie » (生命礼赞) et de « la société harmonieuse » (和谐社会), et des sculptures du « jardin thématique de la culture harmonieuse de la population » (和谐人口文化主题园). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_Heping</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Heping</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Adresse: n° 1131 Dalian Road (大连路1121号).
 Le parc est accessible en prenant :
